--- a/08_position_subtype_HLA/subtype_HLA_regression_result.xlsx
+++ b/08_position_subtype_HLA/subtype_HLA_regression_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/202/hiv-capsid-data/position_subtype_HLA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/202/hiv-capsid-data/08_position_subtype_HLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CCDC0A-18B6-714D-A588-F60DABD26057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA748FA7-354F-9A46-A18F-1CBBC40FBC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20860" yWindow="3280" windowWidth="41220" windowHeight="22540" xr2:uid="{068E35E1-2D64-824B-A245-3B8D84E36743}"/>
+    <workbookView xWindow="18860" yWindow="2620" windowWidth="41220" windowHeight="22540" xr2:uid="{068E35E1-2D64-824B-A245-3B8D84E36743}"/>
   </bookViews>
   <sheets>
     <sheet name="raw linear reg data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Subtype chi-square test rank and #HLA Reference, regression</t>
+  </si>
+  <si>
+    <t>Subtype chi-square test rank and #HLA Reference with interaction, regression</t>
+  </si>
+  <si>
+    <t>Subtype chi-square test and #HLA Reference, Rfit</t>
+  </si>
+  <si>
+    <t>Subtype chi-square test and #HLA Reference with interaction, Rfit</t>
+  </si>
   <si>
     <t>## 
 ## Call:
@@ -41,25 +53,25 @@
 ## 
 ## Residuals:
 ##      Min       1Q   Median       3Q      Max 
-## -0.56385 -0.12690 -0.02958  0.13388  1.19403 
+## -0.63064 -0.12129  0.04776  0.04776  1.20449 
 ## 
 ## Coefficients:
-##                Estimate Std. Error t value Pr(&gt;|t|)    
-## (Intercept)  -0.1338762  0.0311620  -4.296 2.57e-05 ***
-## subtype_rank  0.0020442  0.0002837   7.206 8.36e-12 ***
-## HLA           0.1178779  0.0108985  10.816  &lt; 2e-16 ***
+##               Estimate Std. Error t value Pr(&gt;|t|)    
+## (Intercept)  -0.050997   0.023846  -2.139   0.0335 *  
+## subtype_rank  0.001616   0.000244   6.622 2.51e-10 ***
+## HLA           0.116175   0.011516  10.088  &lt; 2e-16 ***
 ## ---
 ## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
 ## 
-## Residual standard error: 0.2441 on 228 degrees of freedom
-## Multiple R-squared:  0.6424, Adjusted R-squared:  0.6393 
-## F-statistic: 204.8 on 2 and 228 DF,  p-value: &lt; 2.2e-16</t>
+## Residual standard error: 0.2477 on 228 degrees of freedom
+## Multiple R-squared:  0.6318, Adjusted R-squared:  0.6286 
+## F-statistic: 195.6 on 2 and 228 DF,  p-value: &lt; 2.2e-16</t>
   </si>
   <si>
     <t>##                     2.5 %       97.5 %
-## (Intercept)  -0.195278423 -0.072473935
-## subtype_rank  0.001485233  0.002603209
-## HLA           0.096403228  0.139352640</t>
+## (Intercept)  -0.097984402 -0.004009202
+## subtype_rank  0.001135112  0.002096718
+## HLA           0.093484362  0.138866266</t>
   </si>
   <si>
     <t>## 
@@ -68,36 +80,27 @@
 ## 
 ## Residuals:
 ##      Min       1Q   Median       3Q      Max 
-## -0.48690 -0.10966 -0.02180  0.08262  1.13432 
+## -0.57387 -0.12035  0.02421  0.02421  1.12006 
 ## 
 ## Coefficients:
 ##                    Estimate Std. Error t value Pr(&gt;|t|)    
-## (Intercept)      -0.0826202  0.0268265  -3.080  0.00233 ** 
-## subtype_rank      0.0016648  0.0002426   6.862 6.38e-11 ***
-## HLA              -0.2973392  0.0439839  -6.760 1.15e-10 ***
-## subtype_rank:HLA  0.0021558  0.0002233   9.654  &lt; 2e-16 ***
+## (Intercept)      -0.0273060  0.0190108  -1.436    0.152    
+## subtype_rank      0.0015486  0.0001935   8.003 6.22e-14 ***
+## HLA              -0.4757497  0.0515918  -9.221  &lt; 2e-16 ***
+## subtype_rank:HLA  0.0029941  0.0002568  11.657  &lt; 2e-16 ***
 ## ---
 ## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
 ## 
-## Residual standard error: 0.206 on 227 degrees of freedom
-## Multiple R-squared:  0.7465, Adjusted R-squared:  0.7431 
-## F-statistic: 222.8 on 3 and 227 DF,  p-value: &lt; 2.2e-16</t>
+## Residual standard error: 0.1963 on 227 degrees of freedom
+## Multiple R-squared:  0.7697, Adjusted R-squared:  0.7666 
+## F-statistic: 252.8 on 3 and 227 DF,  p-value: &lt; 2.2e-16</t>
   </si>
   <si>
     <t>##                         2.5 %       97.5 %
-## (Intercept)      -0.135481059 -0.029759398
-## subtype_rank      0.001186735  0.002142787
-## HLA              -0.384008123 -0.210670364
-## subtype_rank:HLA  0.001715745  0.002595809</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test rank and #HLA Reference, regression</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test rank and #HLA Reference with interaction, regression</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and #HLA Reference, Rfit</t>
+## (Intercept)      -0.064766143  0.010154241
+## subtype_rank      0.001167346  0.001929919
+## HLA              -0.577409861 -0.374089615
+## subtype_rank:HLA  0.002488011  0.003500237</t>
   </si>
   <si>
     <t>## Call:
@@ -105,17 +108,14 @@
 ## 
 ## Coefficients:
 ##                Estimate  Std. Error t.value p.value    
-## (Intercept) -5.8438e-17  1.1234e-03   0.000       1    
-## subtype      6.2512e-05  5.4316e-07 115.090  &lt;2e-16 ***
-## HLA          7.6848e-02  1.2307e-03  62.444  &lt;2e-16 ***
+## (Intercept) -1.3149e-16  1.0396e-03   0.000       1    
+## subtype      6.2657e-05  5.1691e-07 121.213  &lt;2e-16 ***
+## HLA          7.6844e-02  1.1701e-03  65.673  &lt;2e-16 ***
 ## ---
 ## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
 ## 
-## Multiple R-squared (Robust): 0.9269855 
-## Reduction in Dispersion Test: 1447.334 p-value: 0</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and #HLA Reference with interaction, Rfit</t>
+## Multiple R-squared (Robust): 0.9305885 
+## Reduction in Dispersion Test: 1528.378 p-value: 0</t>
   </si>
   <si>
     <t>## Call:
@@ -123,126 +123,15 @@
 ## 
 ## Coefficients:
 ##                Estimate  Std. Error t.value p.value    
-## (Intercept)  0.0000e+00  1.2336e-03   0.000       1    
-## subtype      7.2086e-05  8.0823e-07  89.190  &lt;2e-16 ***
-## HLA          7.9148e-02  1.4551e-03  54.392  &lt;2e-16 ***
-## subtype:HLA -2.9382e-06  2.3027e-07 -12.760  &lt;2e-16 ***
+## (Intercept) -5.8438e-17  1.1320e-03   0.000       1    
+## subtype      7.2222e-05  7.7067e-07  93.713  &lt;2e-16 ***
+## HLA          7.8699e-02  1.3823e-03  56.933  &lt;2e-16 ***
+## subtype:HLA -2.9140e-06  2.1971e-07 -13.263  &lt;2e-16 ***
 ## ---
 ## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
 ## 
-## Multiple R-squared (Robust): 0.9287019 
-## Reduction in Dispersion Test: 985.6047 p-value: 0</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test mean, Rfit</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test mean with interaction, Rfit</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test sum, Rfit</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test sum with interaction, Rfit</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test median, Rfit</t>
-  </si>
-  <si>
-    <t>Subtype chi-square test and HLA chi-square test median with interaction, Rfit</t>
-  </si>
-  <si>
-    <t>## Call:
-## rfit.default(formula = Entropy ~ subtype + HLA, data = df)
-## 
-## Coefficients:
-##               Estimate Std. Error t.value p.value    
-## (Intercept) 2.9219e-17 2.2131e-03   0.000       1    
-## subtype     7.5609e-05 5.6105e-07 134.763  &lt;2e-16 ***
-## HLA         2.9159e-03 1.0026e-04  29.084  &lt;2e-16 ***
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.9052548 
-## Reduction in Dispersion Test: 1089.227 p-value: 0</t>
-  </si>
-  <si>
-    <t>## Call:
-## rfit.default(formula = Entropy ~ subtype * HLA, data = df)
-## 
-## Coefficients:
-##                Estimate  Std. Error t.value p.value    
-## (Intercept) -2.9219e-17  2.0472e-03   0.000       1    
-## subtype      8.2192e-05  6.3863e-07 128.702  &lt;2e-16 ***
-## HLA          3.4629e-03  1.0877e-04  31.837  &lt;2e-16 ***
-## subtype:HLA -3.2708e-07  1.3722e-08 -23.835  &lt;2e-16 ***
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.9142012 
-## Reduction in Dispersion Test: 806.2413 p-value: 0</t>
-  </si>
-  <si>
-    <t>## Call:
-## rfit.default(formula = Entropy ~ subtype + HLA, data = df)
-## 
-## Coefficients:
-##               Estimate Std. Error t.value p.value    
-## (Intercept) 5.8438e-17 3.1364e-03   0.000       1    
-## subtype     7.8080e-05 5.4985e-07 142.004  &lt;2e-16 ***
-## HLA         1.8285e-04 5.7771e-06  31.651  &lt;2e-16 ***
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.9028929 
-## Reduction in Dispersion Test: 1059.962 p-value: 0</t>
-  </si>
-  <si>
-    <t>## Call:
-## rfit.default(formula = Entropy ~ subtype * HLA, data = df)
-## 
-## Coefficients:
-##                Estimate  Std. Error  t.value   p.value    
-## (Intercept)  2.9219e-17  3.1439e-03   0.0000         1    
-## subtype      7.8231e-05  6.2317e-07 125.5368 &lt; 2.2e-16 ***
-## HLA          2.0667e-04  6.7800e-06  30.4816 &lt; 2.2e-16 ***
-## subtype:HLA -7.9189e-09  1.4087e-09  -5.6214  5.53e-08 ***
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.9041674 
-## Reduction in Dispersion Test: 713.9042 p-value: 0</t>
-  </si>
-  <si>
-    <t>## Call:
-## rfit.default(formula = Entropy ~ subtype + HLA, data = df)
-## 
-## Coefficients:
-##               Estimate Std. Error t.value p.value    
-## (Intercept) 5.8438e-17 2.8518e-03   0.000       1    
-## subtype     7.6371e-05 5.7197e-07 133.521  &lt;2e-16 ***
-## HLA         1.9869e-03 1.2363e-04  16.072  &lt;2e-16 ***
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.9037111 
-## Reduction in Dispersion Test: 1069.937 p-value: 0</t>
-  </si>
-  <si>
-    <t>## Call:
-## rfit.default(formula = Entropy ~ subtype * HLA, data = df)
-## 
-## Coefficients:
-##                Estimate  Std. Error t.value p.value    
-## (Intercept)  5.8438e-17  1.1743e-03   0.000       1    
-## subtype      8.1888e-05  6.3661e-07 128.633  &lt;2e-16 ***
-## HLA          4.6894e-03  1.4180e-04  33.069  &lt;2e-16 ***
-## subtype:HLA -3.9776e-07  1.4684e-08 -27.087  &lt;2e-16 ***
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Multiple R-squared (Robust): 0.9124757 
-## Reduction in Dispersion Test: 788.8555 p-value: 0</t>
+## Multiple R-squared (Robust): 0.9320679 
+## Reduction in Dispersion Test: 1038.191 p-value: 0</t>
   </si>
 </sst>
 </file>
@@ -616,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A72ED6-0FAD-B74E-89E2-B21629464E8A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,91 +517,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="360" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="252" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="252" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="252" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="252" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/08_position_subtype_HLA/subtype_HLA_regression_result.xlsx
+++ b/08_position_subtype_HLA/subtype_HLA_regression_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/202/hiv-capsid-data/08_position_subtype_HLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA748FA7-354F-9A46-A18F-1CBBC40FBC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5154F5-32DB-0F46-B2D9-F79D9140F42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="2620" windowWidth="41220" windowHeight="22540" xr2:uid="{068E35E1-2D64-824B-A245-3B8D84E36743}"/>
+    <workbookView xWindow="19420" yWindow="3820" windowWidth="41220" windowHeight="22540" xr2:uid="{068E35E1-2D64-824B-A245-3B8D84E36743}"/>
   </bookViews>
   <sheets>
     <sheet name="raw linear reg data" sheetId="2" r:id="rId1"/>
@@ -47,62 +47,6 @@
     <t>Subtype chi-square test and #HLA Reference with interaction, Rfit</t>
   </si>
   <si>
-    <t>## 
-## Call:
-## lm(formula = Entropy ~ subtype_rank + HLA, data = df)
-## 
-## Residuals:
-##      Min       1Q   Median       3Q      Max 
-## -0.63064 -0.12129  0.04776  0.04776  1.20449 
-## 
-## Coefficients:
-##               Estimate Std. Error t value Pr(&gt;|t|)    
-## (Intercept)  -0.050997   0.023846  -2.139   0.0335 *  
-## subtype_rank  0.001616   0.000244   6.622 2.51e-10 ***
-## HLA           0.116175   0.011516  10.088  &lt; 2e-16 ***
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Residual standard error: 0.2477 on 228 degrees of freedom
-## Multiple R-squared:  0.6318, Adjusted R-squared:  0.6286 
-## F-statistic: 195.6 on 2 and 228 DF,  p-value: &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t>##                     2.5 %       97.5 %
-## (Intercept)  -0.097984402 -0.004009202
-## subtype_rank  0.001135112  0.002096718
-## HLA           0.093484362  0.138866266</t>
-  </si>
-  <si>
-    <t>## 
-## Call:
-## lm(formula = Entropy ~ subtype_rank * HLA, data = df)
-## 
-## Residuals:
-##      Min       1Q   Median       3Q      Max 
-## -0.57387 -0.12035  0.02421  0.02421  1.12006 
-## 
-## Coefficients:
-##                    Estimate Std. Error t value Pr(&gt;|t|)    
-## (Intercept)      -0.0273060  0.0190108  -1.436    0.152    
-## subtype_rank      0.0015486  0.0001935   8.003 6.22e-14 ***
-## HLA              -0.4757497  0.0515918  -9.221  &lt; 2e-16 ***
-## subtype_rank:HLA  0.0029941  0.0002568  11.657  &lt; 2e-16 ***
-## ---
-## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
-## 
-## Residual standard error: 0.1963 on 227 degrees of freedom
-## Multiple R-squared:  0.7697, Adjusted R-squared:  0.7666 
-## F-statistic: 252.8 on 3 and 227 DF,  p-value: &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t>##                         2.5 %       97.5 %
-## (Intercept)      -0.064766143  0.010154241
-## subtype_rank      0.001167346  0.001929919
-## HLA              -0.577409861 -0.374089615
-## subtype_rank:HLA  0.002488011  0.003500237</t>
-  </si>
-  <si>
     <t>## Call:
 ## rfit.default(formula = Entropy ~ subtype + HLA, data = df)
 ## 
@@ -132,6 +76,62 @@
 ## 
 ## Multiple R-squared (Robust): 0.9320679 
 ## Reduction in Dispersion Test: 1038.191 p-value: 0</t>
+  </si>
+  <si>
+    <t>## 
+## Call:
+## lm(formula = Entropy ~ subtype_rank + HLA, data = df)
+## 
+## Residuals:
+##      Min       1Q   Median       3Q      Max 
+## -0.49054 -0.12676  0.05899  0.05899  1.08086 
+## 
+## Coefficients:
+##                Estimate Std. Error t value Pr(&gt;|t|)    
+## (Intercept)  -0.0649727  0.0179847  -3.613 0.000373 ***
+## subtype_rank  0.0059825  0.0004743  12.614  &lt; 2e-16 ***
+## HLA           0.0695970  0.0105914   6.571 3.35e-10 ***
+## ---
+## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
+## 
+## Residual standard error: 0.2075 on 228 degrees of freedom
+## Multiple R-squared:  0.7414, Adjusted R-squared:  0.7391 
+## F-statistic: 326.8 on 2 and 228 DF,  p-value: &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t>##                     2.5 %       97.5 %
+## (Intercept)  -0.100410075 -0.029535301
+## subtype_rank  0.005047985  0.006917091
+## HLA           0.048727501  0.090466598</t>
+  </si>
+  <si>
+    <t>## 
+## Call:
+## lm(formula = Entropy ~ subtype_rank * HLA, data = df)
+## 
+## Residuals:
+##      Min       1Q   Median       3Q      Max 
+## -0.49577 -0.06789  0.02419  0.02419  1.05375 
+## 
+## Coefficients:
+##                    Estimate Std. Error t value Pr(&gt;|t|)    
+## (Intercept)      -0.0290519  0.0157400  -1.846   0.0662 .  
+## subtype_rank      0.0048617  0.0004199  11.578  &lt; 2e-16 ***
+## HLA              -0.1266590  0.0226494  -5.592 6.42e-08 ***
+## subtype_rank:HLA  0.0022689  0.0002403   9.441  &lt; 2e-16 ***
+## ---
+## Signif. codes:  0 '***' 0.001 '**' 0.01 '*' 0.05 '.' 0.1 ' ' 1
+## 
+## Residual standard error: 0.1763 on 227 degrees of freedom
+## Multiple R-squared:  0.8143, Adjusted R-squared:  0.8119 
+## F-statistic: 331.8 on 3 and 227 DF,  p-value: &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t>##                         2.5 %       97.5 %
+## (Intercept)      -0.060067012  0.001963226
+## subtype_rank      0.004034310  0.005689167
+## HLA              -0.171288986 -0.082028922
+## subtype_rank:HLA  0.001795338  0.002742393</t>
   </si>
 </sst>
 </file>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A72ED6-0FAD-B74E-89E2-B21629464E8A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,18 +525,18 @@
     </row>
     <row r="2" spans="1:2" ht="360" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -549,10 +549,10 @@
     </row>
     <row r="7" spans="1:2" ht="252" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
